--- a/reports/Sales-MAY.xlsx
+++ b/reports/Sales-MAY.xlsx
@@ -171,7 +171,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
